--- a/pred_ohlcv/54_21/2019-10-29 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 STEEM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-7288.414982219999</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-7279.414982219999</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-7279.414982219999</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-26642.31412179</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-27910.13052179</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-24317.04932179</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-24119.04932179</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-24119.04932179</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-24777.26432179</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-17801.16702179</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-17801.16702179</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-17801.16702179</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-17801.16702179</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-16969.92862179</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-16969.92862179</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-16809.77072706</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-16809.77072706</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-16801.77072706</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-16801.77072706</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>7966.043405960001</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1920.563694039998</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1920.563694039998</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1920.563694039998</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1635.600094039998</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1889.600094039998</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-2666.113994039998</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-3583.017394039998</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-16843.21809404</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-19541.23599404</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-20558.91769404</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-20563.91769404</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-19270.88109404</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-19270.88109404</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-20511.05669404</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-27287.45949404</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-48746.06856154001</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-48744.36466154001</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-48744.36466154001</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-48744.36466154001</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-48743.36466154001</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-67077.54456154001</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-67933.71566154002</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 STEEM ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>-26832.06452179</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-24777.26432179</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-17801.16702179</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-17801.16702179</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-16969.92862179</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-16969.92862179</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-16809.77072706</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-16809.77072706</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-16801.77072706</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-16801.77072706</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>7966.043405960001</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1928.563694039998</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1635.600094039998</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1889.600094039998</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-2666.113994039998</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-3583.017394039998</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-16843.21809404</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-20558.91769404</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-20563.91769404</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-19277.88109404</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-19270.88109404</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-19270.88109404</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-27287.45949404</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-48744.36466154001</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-48744.36466154001</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-48744.36466154001</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-48743.36466154001</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-67078.54456154001</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-67933.71566154002</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-67932.71566154002</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
